--- a/outputs/o__Oscillospirales.xlsx
+++ b/outputs/o__Oscillospirales.xlsx
@@ -18,6 +18,8 @@
     <sheet name="f__Lachnospiraceae-t-p" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="g__Ruminococcus_E-t-p" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24022,6 +24024,3994 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG440</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1071140949905346</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3584950492239009</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.63726267754809</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>hRUG890</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.5931919194773847</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.567067379333856</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.5674042608124956</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.4530799548813944</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.685821296770773</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.882078064905998</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG025</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4320866375030633</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.650086363565995</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.659227693084332</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG729</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.266862157983271</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.190206401317519</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2.394139732471726</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG768</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.4117883459562832</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.202526176502178</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.84632642464668</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG721</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.7032158864089779</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-3.643228979645038</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.862976103449387</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG161</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.7637064557282675</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.316028773574967</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.033885902772335</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG077</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.6618232594669209</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.795893215838506</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.142331541286655</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG725</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.6657138517554725</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.277291249400132</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-2.15878119838929</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG162</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.4250611880289531</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5.126090429953912</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.23775849542096</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG654</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.6365187841933907</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.564711873699502</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.766161395445253</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG002</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.14027375103086</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4835640223434294</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.27891481519217</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG778</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.6306901085793525</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.021630209007149</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.409948814349702</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG032</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.471736609368377</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.16917290153185</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.8669618545685269</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG001</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3081365956581588</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.748818610962402</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-2.030437461607456</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>hRUG864</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.5804954216105224</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.943810958073575</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.5162644403393132</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG078</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.8459894163772166</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.63435002835408</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2.240096955698083</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG004</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.098422170943997</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.03189564472597</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.233520379779397</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG014</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.8065570013451122</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-6.013683253281415</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.255715809779674</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG804</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.9890027510200899</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5968524107988239</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.527639310964148</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>hRUG891</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.897582809882073</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.14413057827794</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.6990315775597</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1337652838149027</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.340120018553666</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.6417228941992654</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.3194099944659877</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4.217114004604798</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1034653930615096</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.5079123080199091</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.308651445614455</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.5179555129631495</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1828138266634788</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.897889639509375</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.9364273710303452</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3225400506844363</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.653462806080179</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.891509308555676</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2627861789539641</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.965999538033448</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.5135866152922859</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.4567754160038615</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.26692834400685</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.6301295855360139</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.07852935703313496</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.744782299019684</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.7247666770992894</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1866693919954461</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.826988088121251</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.3410631961219243</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.6831100806150033</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.265025476947699</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.8594452899497413</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02309273912412982</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-4.331049224823175</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.6885370072873956</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.06071406162582002</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.855439155661765</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.27818919747799</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02574978346324182</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-5.319076370538851</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.8955805217316886</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.09772453355429729</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-4.407995386319473</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.5884134101473194</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.3404162280907386</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.338230504132611</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.3185058023215948</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.7610047173841956</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.714930088629691</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.1268409677118436</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.3878279134260209</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.768284691171047</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.5412827900487037</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.2709346302162761</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.999652149787775</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.6891458245707368</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2705811457785133</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-4.261629306882298</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.8821532312892868</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2844149156646658</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-6.504148298397583</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.3346761933462556</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.7817501019592321</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.989959660688293</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.1930536081746364</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.4595617909237819</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7840401798235058</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.025563115338372</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.02515949953335578</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.474095104686178</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.5873495403705351</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.6963748833028464</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.8899705847307057</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.461359376977869</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1634803522234354</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.580340073928269</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.5887417012654774</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.6186438598887362</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.645726611923613</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.2599641831661924</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG476</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06484325098376487</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.915919046460012</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.243632906733628</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.02705295698630799</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.899981308579002</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01455633007493334</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1265359122344829</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-7.321724628019491</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.2290639898610716</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.5010304695322463</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.088475227566463</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.6289626720258022</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG586</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1298425361342258</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-5.222679633868099</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.8132493036613394</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.213255104622934</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-4.254948876696282</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.9455146946770023</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2149771491740711</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-4.191117973632106</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.8336109194906077</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1539684223746833</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-3.420502063322558</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.2994475986058381</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.09338996677268356</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.711700631087684</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.2970919647840236</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.04067643768545764</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-4.522914531423831</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.6848160903609233</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.4105057420584661</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.617546988230614</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.8530137296167267</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.0903868764041585</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-4.927928021223807</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.5379616688652533</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.04408760427830921</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-4.716057676586962</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.2163032326221416</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG598</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.5524316713063413</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.019870472315887</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1.047967601890818</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5088000045052935</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-3.816787164852492</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.9781265492340457</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.143878394908394</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-5.656569569100573</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.5872298566801005</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-1.75563773066306</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.9434029561625257</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2777069850665879</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.1575416931650971</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-2.181861595228805</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.4163320843499738</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.4307952681012872</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-6.419238901384787</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.1124309754470371</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.3906157847730372</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-3.99687473948312</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.4478439334971134</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.04699825130466054</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-3.834254865146522</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.2715452177808307</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.6528037817987785</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-4.174124122803062</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.04844610702238918</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.3303014727603029</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-5.029669983126182</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.3956505021533903</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.1695558267364942</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-3.764888881727292</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.1904590749567598</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.1737954749824185</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-3.159803290149659</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.8659327468652244</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.2263380406686619</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-5.47082285264533</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.2463765311517793</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.2670512042640722</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-3.013999751147925</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1.147214682408472</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.3383384012679761</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-3.917027892131896</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.4609566502784828</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.2221250927978624</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-2.815150198760781</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.8632897329167141</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.3890859076161065</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.945190063567259</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.3530878619498373</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3860845751141677</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-5.611521784860339</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.9730644808924496</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.7412507392531155</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-4.243472276755398</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.295816612774379</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.1561452819903841</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-6.483052047264789</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.2466788745144443</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.1819690084005604</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-4.302388902814228</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.09040963169305556</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.1058249004059427</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.420793351884605</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.6024219391432861</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.1645609663943711</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-5.201484504310494</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.4424862231844531</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3126307554208105</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-3.109807575690836</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.7191504927596667</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.1905797762976661</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-5.174727853293941</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.4636037075033439</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.2724839100367131</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.102712461704799</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.5183163209939232</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.05016444005875777</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.325744157848941</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.5063932802186778</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.08535688883499462</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-8.058475204606276</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.06128377188354267</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.1277191963377609</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-2.740237849754035</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.9800952178781317</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.1600966742453352</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-5.290021961337326</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.06350659987084412</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.03917130702406336</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-2.163951708571106</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.4083059835767183</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.2973516007081607</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.668820673978552</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.9779621594718012</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.02665787136046576</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-4.509569304220271</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.2311588335692204</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.1847214968066006</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-4.446081326069371</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.324893719410045</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.02296543291469098</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-4.701639427538</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.6636525979776446</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.1068109679590161</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-6.618810476685905</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.5601795002446075</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.05131149197827785</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-3.438679982270372</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.4304941084869368</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.6260972565875225</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-2.326589916061605</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.1968815475667564</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.2844349622776398</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-5.350421776961415</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.4046069317403203</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.9533268348773751</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.9596676405843376</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.1214637782366683</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.4340263499904081</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-3.019358226815317</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.3859614144209421</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1557072203590245</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-3.626644897558641</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.5725152992674833</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.01430097026623294</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-2.12945153926228</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.7442359771743225</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.6977182042391884</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-2.522452717913626</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-1.046578874533524</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.8166929838658956</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.5461009590113336</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.2021896222466755</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.8999322445005283</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.638342832365943</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.6079191100150818</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.7896699553115187</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-3.811855023208193</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.473136730089272</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG376</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.3201338460233307</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.371804049570061</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.7820273596314657</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.4606588229161768</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-2.554233948307027</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.2023433283263884</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.4744992519520034</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-7.483766353610503</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.2945657932645043</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.08358128217240332</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-4.070577481408812</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.5850197008519795</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.8992956767447758</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-2.168139296729247</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.2179804545011676</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.2806782408075957</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-3.991553755029177</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.429636848456782</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG207</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.1633810133294189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.929561032855481</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.8942196974618709</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.06584683454577299</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-4.06044851076331</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.5773570977955891</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.227785963548074</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-4.442662133021043</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.4018689896964631</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3563482954227828</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-6.581857117194222</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.3186108604007986</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.1287687953598894</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-4.598097816606024</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.3990052251343524</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-1.138214764961057</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.250744959928028</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.1776235701191045</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.363854174482269</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-3.480627985338708</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.3957922555503494</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3838087620361463</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-6.717938500274335</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.6178681372552233</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.501207075932815</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-3.549261658338103</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.5529476633304529</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.3845585635472756</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-1.77287537584909</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.7130822981766145</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.6587542457876092</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-6.560662564187458</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.03601115109822964</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.05919442581698632</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-5.950728218676091</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.5086002159607752</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.5710499120070628</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-1.344813515032559</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.0742595729633658</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.1523463028885066</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-2.992932255124587</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.5978640066630682</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.3324709795650338</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-4.10545861188069</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.4815677900795572</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.8871431853665539</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0.8415078782319974</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.3067355576581454</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.3704830014721938</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-5.381688067636627</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.948835880845067</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.8000999814054572</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-1.341725626856441</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.9561737944736336</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.14821487181235</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-5.020131283659897</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.6081377966979212</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.4194455645972441</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-4.555319184060744</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.1057931772370262</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1793621675625625</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-3.845885118522266</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.6056095298626046</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.1419577431295896</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-5.653154208473831</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.3301407513611947</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.1920799117222657</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-5.552275600788684</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.1739803929312048</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.07210949198491637</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-6.681457106885865</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.1328709264426944</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.5583061577866936</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-6.159703598270406</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.5197222762072031</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-1.086445735851271</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-1.074985409178929</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.3449403986366512</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.8697363364639056</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-4.004946015675488</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.3903401872805539</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.6066063148899229</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-2.333712865619598</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.5829140035804328</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.1794816207538919</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-4.578903000702098</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.4021611559850086</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG657</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.3017928479244824</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-2.567997628618691</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.727407764544112</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG174</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.2427067668170741</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.05652023669444105</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-1.089194842389698</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.2236744276961475</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-2.992147727231078</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.4910900415140582</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-1.348655441060387</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-5.565197071155722</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.2105021893208253</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG795</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.001241620608727741</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-5.260903474941388</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.324510613332476</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.9053608951498013</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-1.971396623613838</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.4907649479113865</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.02092618849209507</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-2.713770765734274</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.7350659104151428</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.02682534592965503</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-4.876278785807126</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.7349796187178361</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-1.226675977998641</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-2.407246923580093</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.2505553304088007</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.4581752215788427</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-5.25767899662022</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.4816540482920036</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.0013989144248941</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-3.84275591488576</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.5930491122425672</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.02367247098756065</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-3.445084473470232</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.758067519453858</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.3555732049079666</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-4.154327826996503</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.465479218072211</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.0853018862765154</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0.9365900774699774</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-1.026500085906539</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.3413649519040619</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-3.317620203909418</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.1095511457674544</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>RUG450</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.08212687298764768</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-3.096688825259364</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.9443819784674303</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.01281174606444824</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-3.348113738298068</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.4986541232187439</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.128872624745</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-4.039369279992771</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.7835538111743849</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.2042905713058465</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-5.575177165227291</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-1.198304981237514</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.1900981417031652</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-5.333285630509954</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.07349091119367578</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.04162647876663949</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-2.0813140594529</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.420380844100273</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.2042323569215164</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-3.798990382580448</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.5575757420116559</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.1959003038815534</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-4.0520287411801</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.318483586747077</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.09963053176170204</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-2.208098593934217</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.9434827762511583</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.9202274844060861</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-4.352169938505869</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.1981926435338105</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.3690521970531715</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-4.566203968433592</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-0.2421562089001013</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.7434242918108931</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-6.240240576699261</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.2099488536531978</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.3250002094385037</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-1.549125762284182</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.7753279784252136</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.07780201777458955</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-3.692689303859879</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.6282044367590468</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.4375372609832343</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-3.825889070119924</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-0.5273111221985163</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.1662232550655419</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-3.456476074390554</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.9772041680139881</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>RUG786</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.3497331021101354</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-6.044525740106283</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-0.9052446556639672</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.2660709879176507</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-2.422032115509076</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.7510104684223821</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.8231863416066986</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-3.052918345961301</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.09057306184494024</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.1722639620183175</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-3.25555844196821</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.9584614375639859</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.3244847514801749</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-1.829800292313475</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-0.8573233684483733</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.7128156712845181</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-0.7243331488266884</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-1.250947505033484</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.2710538709213087</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-1.512974152563262</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-0.4330993463960716</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.5563322212116691</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-5.841294227789922</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-0.1719393387141845</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.2951419146178291</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-3.609981097183592</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-1.001917672398462</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.5500758842756701</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-1.511977245940759</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.1444089091947142</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.2553270945407557</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-2.609232801662342</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.4903650348147809</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.3182839289190328</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-4.753733244320807</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.7354799480960311</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/o__Oscillospirales.xlsx
+++ b/outputs/o__Oscillospirales.xlsx
@@ -20,6 +20,7 @@
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="o__Oscillospirales_pred-t" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28012,6 +28013,1664 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG518</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.480425938345007</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.960244794531961</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.049223057724421</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG491</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.49510775530661</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-12.00938639765489</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.22599793971089</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG235</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.9557636665313145</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-8.487940894206385</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2043364994694297</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG313</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.7259630542997241</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.9808029040986136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.535159419550928</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5650011245738551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-9.685423936630189</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.7295885420395373</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4463158131599754</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-8.922907534209356</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.378198518967832</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG158</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4354763605053313</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-18.61440126152864</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3815134780347954</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.334086505149569</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-11.26915175466481</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.782366315709315</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1977384514331531</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.347065481321626</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.438065300715459</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG027</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.525221693144923</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.300402356319603</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.20605767227429</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG215</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.41463941631386</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.872868591389368</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.078124507555149</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG303</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.820153099032736</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.811707351233289</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-3.989730490781323</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG342</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.322228701423215</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.353836066649835</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.607832386483266</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG149</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.225988813193376</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-15.66011266828147</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.656585575467676</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8712229034605787</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-7.780877542692922</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.607942018885774</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4022317196385615</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.298201171004465</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.79854298799485</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG088</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9169446424948893</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-9.492238744562464</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1.287643656007058</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.241092598152034</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-10.72880346181816</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.285485118611532</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG104</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.257347713085756</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.565405908463983</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2.024103833590466</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7521519898339081</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.456606303866457</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.588176724893067</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG327</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1583628960986675</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-18.18221153713014</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.08878384141381306</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.864139969318977</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.611740945405417</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.779739541780432</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3707462448729287</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.898450123895456</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.827193877249506</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8304640311633731</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.867146421722822</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.774154251998527</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG669</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.4792530062863851</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-14.12029567738802</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.903914353699507</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>hRUG903</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8921891118806721</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-18.13142662150864</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.198212844566111</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG294</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.601421064293731</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.62299949631444</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-5.05713446255849</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG814</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.3194649180271629</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-7.59182891430208</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5786038202151043</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9205459771503024</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.141823726757575</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.97051906725423</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG738</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.519578236057472</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-12.11552053441401</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.1317120915148</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG439</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.749555362146115</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.539375808718543</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-4.340278668485608</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3710492211371601</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-5.110854570212424</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.8883258296801368</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG267</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5371237770785871</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-9.061614861928339</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7129838724448104</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG529</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.8281302066466346</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.99424710670067</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-2.746506049939167</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG757</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1646370883382959</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-12.24754862792835</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1301903121118889</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG825</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.2205780950672334</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-11.2055776061338</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.1901980954122301</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG798</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-3.128506262891545</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.172981194979846</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-2.332741262816995</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG573</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.2472478013318419</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-10.59637493957641</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.4248729486030382</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG322</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.1412920880666799</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-7.119962572253908</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3666593309720362</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8459934557155894</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-8.680810311626724</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-2.675770256785141</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG453</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-2.155259244045491</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.126314487137613</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-4.658302874131985</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5050806894077482</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-6.88440533410672</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1.684390291634468</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG542</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.5737611843972129</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.187942143546607</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-4.149931918079799</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG670</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.2618190984197873</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-14.23213002051126</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1826066284616447</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG010</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-2.528691911167</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5.063416783096364</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.902900187916261</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG213</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3816557240793602</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-20.46496868078113</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1775347086667564</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG806</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3920834166117123</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-4.188191144165728</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.6521753698188786</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.6043886229914477</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-6.948898335079839</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1.708354282711773</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG762</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.6593333608228183</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-4.508120394611736</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-1.113438007655173</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2490099733017692</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-8.912425109307659</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.1986250685031417</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3979282483719341</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-3.995333321467319</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.6673830039139417</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG678</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-1.469191411215037</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.676682876303427</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-2.346369323160696</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1046399693264029</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-4.64614399311283</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.8542303763373429</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8049684742824911</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-9.154174759761634</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-2.063197934562133</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.6811602441347434</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-7.829546359832375</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1.795096208766937</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8108886421313729</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-9.24551279139806</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.6831240504525606</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9588193296761892</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-8.025574062165964</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-2.025928727629083</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3746430796128504</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-9.823434848374836</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.2309434340232384</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG592</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5365745004779294</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-5.308601230647342</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.9334376487726807</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8031262149795654</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-9.987646261426683</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-1.467894625613589</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG393</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.9094685155905271</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-10.12040422093417</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.7643865469589278</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.35375736051632</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-8.688784111395094</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-2.327624160992885</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG291</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4701806095218308</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-8.765671526104303</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.7040690309561728</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4434467204580614</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-8.429030037701295</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.5848359677175187</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6925590051266138</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-8.190953485855518</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-2.068330680171977</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.900449502266496</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-9.030779985576688</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-1.680143107526476</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.09740123477915386</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-6.686677973261522</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-1.036685637756312</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.769299366901779</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-10.51909178921513</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.355366702184862</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6714666946746914</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-6.80333958525065</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.9892412831922041</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.111008514620697</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-15.25903268579589</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-1.344629249373976</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4122315232055407</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-6.505875865236648</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-1.685208308351879</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG498</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.9510691932842144</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.488059035581315</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-3.302803614187868</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG241</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1323775608192527</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-4.481749117469791</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.7850561748197045</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG777</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.1232225469629755</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-7.958879763378447</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.4923859883542152</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7912644159291518</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-7.608748287990563</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-2.229656618050803</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG221</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-1.591769631820819</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.305492947334393</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-3.981282924355493</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.278193870293227</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-7.199376730917684</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-1.493275595032916</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
